--- a/Office test/excel.xlsx
+++ b/Office test/excel.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C24" sqref="C24:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -495,7 +495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -503,7 +503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -511,7 +511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -519,7 +519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -527,7 +527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -535,7 +535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -543,11 +543,129 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47">
         <v>24</v>
       </c>
     </row>
